--- a/Source/User_country_and_city_vf1.0.xlsx
+++ b/Source/User_country_and_city_vf1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\BrainStation\Poject\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github_proj\EcoCapture-Analytics\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F865A17D-C0C3-4F47-8244-7D02B5BFDDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1765CD49-55D5-4D3F-9342-C352826E27C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="780" windowWidth="28500" windowHeight="15420" tabRatio="764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31140" yWindow="780" windowWidth="21645" windowHeight="15420" tabRatio="764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12864" uniqueCount="3945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12864" uniqueCount="3946">
   <si>
     <t>100 Mile House, Canada</t>
   </si>
@@ -11878,6 +11878,9 @@
   </si>
   <si>
     <t>Maldvies</t>
+  </si>
+  <si>
+    <t>Traveller_Location</t>
   </si>
 </sst>
 </file>
@@ -12389,7 +12392,7 @@
   <dimension ref="A1:D3285"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3093" sqref="B3093"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12402,7 +12405,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3509</v>
+        <v>3945</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3510</v>
